--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_79.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_79.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,622 +488,668 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_196</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2318840579710145</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_168</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06153846153846154</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>[['A#:min', 'D#:min/A#', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(8.7, 18.3)]</t>
+          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(19.86, 22.32)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:25.480000', '0:00:32.800000'), ('0:01:14.500000', '0:01:20.420000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:01:30.780000', '0:01:41.320000'), ('0:00:41.580000', '0:00:43.480000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2002224694104561</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A', 'B', 'E', 'B', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_54</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2528735632183908</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D', 'E', 'A', 'E', 'D', 'A']]</t>
+          <t>[['F:min', 'C:7', 'F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(44.310045, 56.129002)]</t>
+          <t>[['G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(31.759659, 40.722562)]</t>
+          <t>[('0:00:12.680000', '0:00:20.200000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>[('0:00:22.320000', '0:00:49.780000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_140</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.4375</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
-        </is>
+          <t>schubert-winterreise_38</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2589285714285714</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:(3,5,b7,b9)/C', 'C:min']]</t>
+          <t>[['D#:min/A#', 'A#', 'D#:min/A#']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(94.78, 114.14)]</t>
+          <t>[['E:min', 'B:maj', 'E:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(31.0, 43.66)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:49.280000', '0:00:53.940000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:01:29.080000', '0:01:38.100000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>schubert-winterreise_18</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_34</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>0.09642857142857142</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>[['C/G', 'G:7', 'C']]</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>[(72.64, 79.22)]</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(254.26, 257.98)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:01:14.400000', '0:01:21.680000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:04:03.440000', '0:04:06.980000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_92</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1769041769041769</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
-        </is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_146</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2767857142857143</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(0.36, 2.44)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+          <t>[('0:00:56.720000', '0:00:58.880000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:05.915850', '0:00:14.867142')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_173</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.13125</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E', 'G', 'D']]</t>
-        </is>
+          <t>isophonics_5</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.575</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['E', 'G', 'D']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(85.949, 93.321)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(57.713129, 63.819977)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:09.162102', '0:00:14.073123')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2373626373626374</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_3</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(60.12, 61.36), (58.4, 60.68)]</t>
+          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(77.72, 88.0), (18.32, 25.82)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:08.700000', '0:00:25.020000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:00.480000', '0:00:09.640000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>isophonics_151</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>[['Bb', 'F', 'Bb'], ['F', 'Bb', 'F']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(27.0, 49.86)]</t>
+          <t>[['F:maj', 'C:maj/G', 'F:maj/A'], ['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(1.46, 11.26)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:22.564557', '0:00:26.651269'), ('0:00:23.586235', '0:00:28.578526')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:02:00', '0:02:02.700000'), ('0:01:57.540000', '0:02:01.800000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_49</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_70</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1982905982905983</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G', 'A:min', 'D', 'G']]</t>
-        </is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_167</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4578947368421052</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C', 'D:min', 'G', 'C']]</t>
+          <t>[['A', 'E', 'A', 'E', 'A', 'E'], ['E', 'A', 'E', 'A', 'E', 'E']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(7.043615, 15.019668)]</t>
+          <t>[['C', 'G', 'C', 'G', 'C', 'G'], ['G', 'C', 'G', 'C', 'G', 'G']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(78.91, 85.176)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:35.197913', '0:00:52.299410'), ('0:00:37.995918', '0:01:09.517005')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:27.686530', '0:01:42.489251'), ('0:00:44.300045', '0:00:57.976598')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_148</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3794871794871795</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>isophonics_251</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_6</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['D', 'G', 'D', 'G', 'D', 'G', 'D'], ['G', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(36.32, 51.92)]</t>
+          <t>[['D', 'G/5', 'D', 'G/5', 'D', 'G', 'D'], ['G', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(74.7, 94.12)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:07.525011', '0:00:20.319206'), ('0:00:09.370997', '0:00:22.141972')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:20.432000', '0:00:32.032000'), ('0:02:14.784000', '0:02:21.453000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_62</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_80</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.02511086474501108</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min7', 'C:7']]</t>
-        </is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min7', 'C:7']]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(29.42, 30.52)]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(20.06, 22.1)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:00:02.360000', '0:00:24.960000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:01.640000', '0:00:23.800000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0945054945054945</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['G:7/F', 'C:maj/E', 'G:maj/D'], ['G:maj', 'D:7/C', 'G:maj/B'], ['D:7', 'G:maj', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_120</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_29</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'D#:7', 'G#:maj'], ['D#:7/C#', 'G#:maj/C', 'D#:maj/A#'], ['D#:maj/A#', 'A#:7', 'D#:maj'], ['A#:7', 'D#:maj', 'D#:maj']]</t>
+          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D', 'D#:min', 'C:hdim7', 'A#:min', 'B:maj', 'F#:maj/A#', 'F:7', 'F#:maj'], ['A#:7/G#', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min', 'A#:min/F']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(54.4, 61.44), (58.56, 62.9), (68.82, 77.92), (7.46, 13.64)]</t>
+          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D', 'D#:min', 'C:hdim7', 'A#:min', 'B:maj', 'F#:maj/A#', 'F:7', 'F#:maj'], ['A#:7/G#', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min', 'A#:min/F']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(17.98, 26.32), (63.46, 65.78), (65.28, 71.0), (65.78, 74.48)]</t>
+          <t>[('0:00:02.600000', '0:00:10.700000'), ('0:01:12.880000', '0:01:20.600000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:00.800000', '0:00:09.520000'), ('0:01:10.800000', '0:01:18.300000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_181</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2280405405405405</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Eb', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_37</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_98</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(60.761383, 69.294716)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(54.18, 61.46)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:16.140000', '0:00:59.100000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:15.120000', '0:00:57.580000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E'], ['C:maj', 'A:min/E', 'E:7', 'A:min'], ['A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:7', 'C:min', 'C:min'], ['D#/G', 'C:min/G', 'G:7', 'C:min'], ['C:min', 'C:min/G', 'G:7', 'C:min']]</t>
+          <t>[['A:7', 'G:min/A#', 'C:7', 'F:maj', 'F:maj', 'D:min', 'G:min/A#', 'C:7', 'F:maj', 'A#:maj/F', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'C:min/D#', 'D:hdim7', 'C:min/D#', 'D:(3,b5,b7)', 'C:min/D#', 'C:min/D#', 'F:7', 'A#:min', 'C:(3,b5,b7)', 'A#:min/C#', 'D#:min/F#', 'F:hdim7', 'D#:min/F#', 'F:(3,b5,b7)', 'D#:min/F#', 'A#:min/C#', 'F:min/C', 'C:7', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'F#:maj/A#', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'C:7', 'F:min', 'F:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'G:min7/A#', 'C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A', 'A#:min', 'F:min/G#', 'A#:min', 'F:min/G#', 'G:hdim7/C#', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(36.04, 44.2), (33.92, 41.92), (39.48, 51.46)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(23.04, 28.92), (64.42, 69.7), (21.86, 26.52)]</t>
+          <t>[('0:00:05.060000', '0:02:03.260000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:04.760000', '0:01:58.780000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_248</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_62</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1289473684210526</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E/5', 'F#/4', 'B']]</t>
-        </is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_213</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A', 'B', 'E']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(126.195, 131.396)]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(21.577709, 29.878843)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_173</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_136</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.07408536585365853</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'A']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'A']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(16.24229, 26.56356)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(37.28, 39.869)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:01:27.440000', '0:01:50.440000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:01:28.180000', '0:01:49.560000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
